--- a/Product Backlog Titans.xlsx
+++ b/Product Backlog Titans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College Things\Projects\titans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0982500B-E521-4B95-ACF4-16D428350187}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5775D14C-C59C-49A6-A4B7-FCD820F85EDA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="936" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="336">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -355,9 +355,6 @@
     <t>US1/N1</t>
   </si>
   <si>
-    <t>I can choose weather to still follow them without going through there feeds</t>
-  </si>
-  <si>
     <t>US1/N2</t>
   </si>
   <si>
@@ -1034,6 +1031,18 @@
   </si>
   <si>
     <t>Create list for positive and negative words</t>
+  </si>
+  <si>
+    <t>I can choose whether to still follow them without going through there feeds</t>
+  </si>
+  <si>
+    <t>SPRINT 4 - &lt;Violent and abusive content detection on social media&gt;</t>
+  </si>
+  <si>
+    <t>SPRINT 2 - &lt;Violent and abusive content detection on social media&gt;</t>
+  </si>
+  <si>
+    <t>SPRINT 3 - &lt;Violent and abusive content detection on social media&gt;</t>
   </si>
 </sst>
 </file>
@@ -1454,37 +1463,30 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,20 +1498,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1544,6 +1558,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" textRotation="255"/>
     </xf>
@@ -1551,22 +1568,17 @@
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,11 +1586,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3558,8 +3567,8 @@
   </sheetPr>
   <dimension ref="A3:I200"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3576,17 +3585,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D4" s="36" t="s">
@@ -3595,33 +3604,33 @@
       <c r="E4" s="37"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="50" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="13" t="s">
         <v>8</v>
       </c>
@@ -3631,10 +3640,10 @@
       <c r="E6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="14">
@@ -3644,13 +3653,13 @@
         <v>105</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="E7" s="14" t="s">
         <v>131</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>132</v>
       </c>
       <c r="F7" s="14">
         <v>1</v>
@@ -3664,16 +3673,16 @@
         <v>1</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>134</v>
       </c>
       <c r="F8" s="14">
         <v>1</v>
@@ -3687,16 +3696,16 @@
         <v>1</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -3710,16 +3719,16 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>136</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>137</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -3733,16 +3742,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D11" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -3756,16 +3765,16 @@
         <v>1</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>140</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>141</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
@@ -3779,16 +3788,16 @@
         <v>1</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D13" s="14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="14" t="s">
         <v>142</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>143</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -3802,16 +3811,16 @@
         <v>1</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="14">
         <v>1</v>
@@ -3825,16 +3834,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D15" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>145</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>146</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -3848,13 +3857,13 @@
         <v>1</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E16" s="14"/>
       <c r="F16" s="14">
@@ -3869,16 +3878,16 @@
         <v>1</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D17" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="14" t="s">
         <v>148</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>149</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -3892,16 +3901,16 @@
         <v>1</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
@@ -3915,16 +3924,16 @@
         <v>2</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D19" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>150</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>151</v>
       </c>
       <c r="F19" s="14">
         <v>2</v>
@@ -3938,16 +3947,16 @@
         <v>2</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F20" s="14">
         <v>2</v>
@@ -3961,16 +3970,16 @@
         <v>2</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F21" s="14">
         <v>2</v>
@@ -3984,16 +3993,16 @@
         <v>2</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>183</v>
-      </c>
-      <c r="C22" s="78" t="s">
-        <v>130</v>
-      </c>
-      <c r="D22" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="78" t="s">
-        <v>151</v>
+        <v>182</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>150</v>
       </c>
       <c r="F22" s="14">
         <v>2</v>
@@ -4007,16 +4016,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F23" s="14">
         <v>2</v>
@@ -4030,16 +4039,16 @@
         <v>2</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F24" s="14">
         <v>2</v>
@@ -4053,16 +4062,16 @@
         <v>2</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F25" s="14">
         <v>2</v>
@@ -4076,16 +4085,16 @@
         <v>2</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="14">
         <v>2</v>
@@ -4099,16 +4108,16 @@
         <v>2</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="14">
         <v>2</v>
@@ -4122,16 +4131,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D28" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="E28" s="14" t="s">
         <v>159</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>160</v>
       </c>
       <c r="F28" s="14">
         <v>3</v>
@@ -4145,16 +4154,16 @@
         <v>3</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D29" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="E29" s="14" t="s">
-        <v>162</v>
       </c>
       <c r="F29" s="14">
         <v>3</v>
@@ -4168,13 +4177,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E30" s="14"/>
       <c r="F30" s="14">
@@ -4189,16 +4198,16 @@
         <v>3</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D31" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E31" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>165</v>
       </c>
       <c r="F31" s="14">
         <v>3</v>
@@ -4212,16 +4221,16 @@
         <v>3</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>106</v>
+        <v>332</v>
       </c>
       <c r="F32" s="14">
         <v>3</v>
@@ -4235,16 +4244,16 @@
         <v>3</v>
       </c>
       <c r="B33" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>118</v>
-      </c>
       <c r="D33" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="E33" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>110</v>
       </c>
       <c r="F33" s="14">
         <v>3</v>
@@ -4258,16 +4267,16 @@
         <v>3</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E34" s="14" t="s">
         <v>112</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>113</v>
       </c>
       <c r="F34" s="14">
         <v>3</v>
@@ -4281,16 +4290,16 @@
         <v>4</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D35" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>116</v>
       </c>
       <c r="F35" s="14">
         <v>3</v>
@@ -4304,16 +4313,16 @@
         <v>4</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F36" s="14">
         <v>3</v>
@@ -4327,16 +4336,16 @@
         <v>4</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F37" s="14">
         <v>3</v>
@@ -4350,16 +4359,16 @@
         <v>4</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F38" s="14">
         <v>3</v>
@@ -4373,16 +4382,16 @@
         <v>4</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F39" s="14">
         <v>3</v>
@@ -4396,16 +4405,16 @@
         <v>4</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D40" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E40" s="14" t="s">
         <v>166</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>167</v>
       </c>
       <c r="F40" s="14">
         <v>4</v>
@@ -6182,10 +6191,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A2:T24"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6198,26 +6207,26 @@
     <col min="6" max="6" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>78</v>
       </c>
@@ -6228,122 +6237,119 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>43389</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="46">
         <v>19</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="46">
         <v>19</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="74"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F8" s="77"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>43391</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="46">
         <v>15</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="46">
         <v>19</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>43393</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="46">
         <v>12</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="46">
         <v>19</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>43394</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="46">
         <v>9</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="46">
         <v>19</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>43395</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="46">
         <v>7</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="46">
         <v>19</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>43396</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="46">
         <v>3</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="46">
         <v>19</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
@@ -6377,7 +6383,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A5" sqref="A5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6392,15 +6398,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6435,306 +6441,306 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="58" t="s">
+        <v>333</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>115</v>
+      <c r="B6" s="81" t="s">
+        <v>114</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="D8" s="85" t="s">
-        <v>286</v>
+        <v>315</v>
+      </c>
+      <c r="D8" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52">
+      <c r="A9" s="56">
         <v>2</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>119</v>
+      <c r="B9" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="C9" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="38" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>286</v>
+        <v>318</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="49" t="s">
-        <v>121</v>
+      <c r="B12" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="85" t="s">
-        <v>286</v>
+        <v>321</v>
+      </c>
+      <c r="D14" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52">
+      <c r="A15" s="56">
         <v>4</v>
       </c>
-      <c r="B15" s="53" t="s">
-        <v>307</v>
+      <c r="B15" s="61" t="s">
+        <v>306</v>
       </c>
       <c r="C15" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="38" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="38" t="s">
-        <v>325</v>
-      </c>
-      <c r="D17" s="85" t="s">
-        <v>286</v>
+        <v>324</v>
+      </c>
+      <c r="D17" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="52">
+      <c r="A18" s="56">
         <v>5</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>129</v>
+      <c r="B18" s="51" t="s">
+        <v>128</v>
       </c>
       <c r="C18" s="38" t="s">
-        <v>326</v>
-      </c>
-      <c r="D18" s="86" t="s">
-        <v>287</v>
+        <v>325</v>
+      </c>
+      <c r="D18" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="38" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="38" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="52">
+      <c r="A21" s="56">
         <v>6</v>
       </c>
-      <c r="B21" s="84" t="s">
-        <v>166</v>
+      <c r="B21" s="85" t="s">
+        <v>165</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="84"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="38" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="38" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D23" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
@@ -6748,20 +6754,20 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:A8"/>
     <mergeCell ref="B6:B8"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -6773,7 +6779,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -6786,51 +6792,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -6848,16 +6854,16 @@
       <c r="E4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
@@ -6877,34 +6883,34 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>115</v>
+      <c r="B7" s="81" t="s">
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6917,13 +6923,13 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -6936,13 +6942,13 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="62"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="85" t="s">
-        <v>286</v>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6955,17 +6961,17 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="53">
+      <c r="A10" s="61">
         <v>2</v>
       </c>
-      <c r="B10" s="53" t="s">
-        <v>119</v>
+      <c r="B10" s="61" t="s">
+        <v>118</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -6978,13 +6984,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6997,13 +7003,13 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="86" t="s">
-        <v>286</v>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7016,17 +7022,17 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="49">
+      <c r="A13" s="51">
         <v>3</v>
       </c>
-      <c r="B13" s="49" t="s">
-        <v>121</v>
+      <c r="B13" s="51" t="s">
+        <v>120</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7039,13 +7045,13 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="52"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -7058,13 +7064,13 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="50"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="85" t="s">
-        <v>286</v>
+      <c r="A15" s="52"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7077,17 +7083,17 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="53">
+      <c r="A16" s="61">
         <v>4</v>
       </c>
-      <c r="B16" s="53" t="s">
-        <v>307</v>
+      <c r="B16" s="61" t="s">
+        <v>306</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -7100,13 +7106,13 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -7119,13 +7125,13 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="85" t="s">
-        <v>286</v>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -7138,17 +7144,17 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="49">
+      <c r="A19" s="51">
         <v>5</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="86" t="s">
-        <v>287</v>
+      <c r="B19" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>286</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -7161,13 +7167,13 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="50"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="52"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -7180,13 +7186,13 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -7199,17 +7205,17 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="84">
+      <c r="A22" s="85">
         <v>6</v>
       </c>
-      <c r="B22" s="84" t="s">
-        <v>166</v>
+      <c r="B22" s="85" t="s">
+        <v>165</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -7222,13 +7228,13 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -7241,13 +7247,13 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>313</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -7261,26 +7267,26 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -7315,21 +7321,21 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7337,10 +7343,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A2:T24"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="T22" sqref="T22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7353,22 +7359,22 @@
     <col min="6" max="6" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>78</v>
       </c>
@@ -7379,122 +7385,119 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>43475</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="46">
         <v>18</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="46">
         <v>18</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="74"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F8" s="77"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>43476</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="46">
         <v>15</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="46">
         <v>18</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>43477</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="46">
         <v>12</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="46">
         <v>18</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>43478</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="46">
         <v>8</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="46">
         <v>18</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>43479</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="46">
         <v>3</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="46">
         <v>18</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>43480</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="46">
         <v>1</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="46">
         <v>18</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
@@ -7526,8 +7529,8 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7543,15 +7546,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -7586,160 +7589,160 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="58" t="s">
+        <v>217</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>131</v>
+      <c r="B6" s="61" t="s">
+        <v>130</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="47"/>
-      <c r="B7" s="54"/>
+      <c r="A7" s="60"/>
+      <c r="B7" s="62"/>
       <c r="C7" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="47"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="60"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="47"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="60"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="8" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="49" t="s">
-        <v>133</v>
+      <c r="B10" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="50"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="52"/>
       <c r="C11" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
       <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="47"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="60"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>135</v>
+      <c r="B13" s="53" t="s">
+        <v>134</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>35</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="47"/>
-      <c r="B14" s="56"/>
+      <c r="A14" s="60"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="8" t="s">
         <v>36</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
@@ -7749,50 +7752,50 @@
         <v>14</v>
       </c>
       <c r="B15" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="17"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="49" t="s">
-        <v>138</v>
+      <c r="B16" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="60"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="6"/>
@@ -7802,114 +7805,114 @@
         <v>16</v>
       </c>
       <c r="B18" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>142</v>
+      <c r="B19" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="47"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="47"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="60"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="46" t="s">
+      <c r="A23" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="55" t="s">
-        <v>332</v>
+      <c r="B23" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="C23" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="47"/>
-      <c r="B24" s="56"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="54"/>
       <c r="C24" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="6"/>
@@ -7919,16 +7922,16 @@
         <v>17</v>
       </c>
       <c r="B25" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>47</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="6"/>
@@ -7938,99 +7941,99 @@
         <v>18</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="49" t="s">
-        <v>148</v>
+      <c r="B27" s="51" t="s">
+        <v>147</v>
       </c>
       <c r="C27" s="8" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="8" t="s">
         <v>50</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="55" t="s">
-        <v>197</v>
+      <c r="B29" s="53" t="s">
+        <v>196</v>
       </c>
       <c r="C29" s="8" t="s">
         <v>51</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="52"/>
-      <c r="B30" s="56"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="54"/>
       <c r="C30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="57"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="8" t="s">
         <v>53</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="6"/>
@@ -8044,6 +8047,8 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B23:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B31"/>
     <mergeCell ref="A27:A28"/>
@@ -8060,8 +8065,6 @@
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -8075,7 +8078,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -8088,51 +8091,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -8150,16 +8153,16 @@
       <c r="E4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
@@ -8179,34 +8182,34 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="54">
+      <c r="A7" s="62">
         <v>1</v>
       </c>
-      <c r="B7" s="54" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="79" t="s">
+      <c r="B7" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -8219,13 +8222,13 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
+      <c r="A8" s="62"/>
+      <c r="B8" s="62"/>
       <c r="C8" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -8238,13 +8241,13 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="62"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -8257,13 +8260,13 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -8276,17 +8279,17 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="49">
+      <c r="A11" s="51">
         <v>2</v>
       </c>
-      <c r="B11" s="49" t="s">
-        <v>133</v>
+      <c r="B11" s="51" t="s">
+        <v>132</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -8299,13 +8302,13 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="50"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -8318,13 +8321,13 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -8337,17 +8340,17 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="55">
+      <c r="A14" s="53">
         <v>3</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>135</v>
+      <c r="B14" s="53" t="s">
+        <v>134</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -8360,13 +8363,13 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="56"/>
-      <c r="B15" s="56"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -8383,13 +8386,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -8402,17 +8405,17 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="51">
         <v>5</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>138</v>
+      <c r="B17" s="51" t="s">
+        <v>137</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -8425,13 +8428,13 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -8448,13 +8451,13 @@
         <v>6</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -8467,17 +8470,17 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="49">
+      <c r="A20" s="51">
         <v>7</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>142</v>
+      <c r="B20" s="51" t="s">
+        <v>141</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -8490,13 +8493,13 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="50"/>
-      <c r="B21" s="50"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="52"/>
       <c r="C21" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -8509,13 +8512,13 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="52"/>
       <c r="C22" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -8528,13 +8531,13 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -8547,17 +8550,17 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="55">
+      <c r="A24" s="53">
         <v>8</v>
       </c>
-      <c r="B24" s="55" t="s">
-        <v>332</v>
+      <c r="B24" s="53" t="s">
+        <v>331</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -8570,13 +8573,13 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -8593,13 +8596,13 @@
         <v>9</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -8616,13 +8619,13 @@
         <v>10</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -8635,17 +8638,17 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="49">
+      <c r="A28" s="51">
         <v>11</v>
       </c>
-      <c r="B28" s="49" t="s">
-        <v>148</v>
+      <c r="B28" s="51" t="s">
+        <v>147</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -8658,13 +8661,13 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -8677,17 +8680,17 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="55">
+      <c r="A30" s="53">
         <v>12</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>197</v>
+      <c r="B30" s="53" t="s">
+        <v>196</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -8700,13 +8703,13 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -8719,13 +8722,13 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
-      <c r="B32" s="57"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -8739,26 +8742,26 @@
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -8793,11 +8796,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="B24:B25"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A1:M3"/>
@@ -8812,6 +8810,11 @@
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B24:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -8849,11 +8852,11 @@
       <c r="A4" s="19"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
@@ -8873,116 +8876,116 @@
       <c r="A8" s="29">
         <v>43347</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="46">
         <v>26</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="46">
         <v>26</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="74"/>
+      <c r="F8" s="77"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>43354</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="46">
         <v>15</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="46">
         <v>26</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>43355</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="46">
         <v>13</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="46">
         <v>26</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>43357</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="46">
         <v>9</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="46">
         <v>26</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>43359</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="46">
         <v>7</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="46">
         <v>26</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="35">
         <v>43361</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="46">
         <v>5</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="46">
         <v>26</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
@@ -9029,7 +9032,7 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9044,15 +9047,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -9087,453 +9090,453 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>150</v>
+      <c r="A6" s="56" t="s">
+        <v>202</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>149</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
-      <c r="B8" s="62"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="18" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52" t="s">
-        <v>204</v>
-      </c>
-      <c r="B9" s="53" t="s">
-        <v>152</v>
+      <c r="A9" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>151</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="18" t="s">
         <v>58</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="52" t="s">
-        <v>205</v>
-      </c>
-      <c r="B12" s="49" t="s">
-        <v>170</v>
+      <c r="A12" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>169</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>60</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52"/>
-      <c r="B13" s="50"/>
+      <c r="A13" s="56"/>
+      <c r="B13" s="52"/>
       <c r="C13" s="18" t="s">
         <v>61</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="52"/>
       <c r="C14" s="18" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="B15" s="53" t="s">
-        <v>153</v>
+      <c r="A15" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>152</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="54"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="62"/>
       <c r="C17" s="18" t="s">
         <v>65</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="52" t="s">
-        <v>207</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>154</v>
+      <c r="A18" s="56" t="s">
+        <v>206</v>
+      </c>
+      <c r="B18" s="51" t="s">
+        <v>153</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="52"/>
-      <c r="B19" s="50"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="52"/>
       <c r="C19" s="18" t="s">
         <v>67</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="50"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="52"/>
       <c r="C20" s="18" t="s">
         <v>68</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="52" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="53" t="s">
-        <v>155</v>
+      <c r="A21" s="56" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>154</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>69</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
-      <c r="B22" s="54"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="62"/>
       <c r="C22" s="18" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="54"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="62"/>
       <c r="C23" s="18" t="s">
         <v>71</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>156</v>
+      <c r="A24" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>155</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>72</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="52"/>
-      <c r="B25" s="54"/>
+      <c r="A25" s="56"/>
+      <c r="B25" s="62"/>
       <c r="C25" s="18" t="s">
         <v>73</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="54"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="62"/>
       <c r="C26" s="18" t="s">
         <v>74</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F26" s="10"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
-        <v>210</v>
-      </c>
-      <c r="B27" s="49" t="s">
-        <v>157</v>
+      <c r="A27" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>156</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>75</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F27" s="10"/>
       <c r="G27" s="6"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="52"/>
-      <c r="B28" s="50"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="52"/>
       <c r="C28" s="18" t="s">
         <v>76</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F28" s="10"/>
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="52"/>
-      <c r="B29" s="50"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="18" t="s">
         <v>77</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="6"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
-        <v>211</v>
-      </c>
-      <c r="B30" s="82" t="s">
-        <v>158</v>
+      <c r="A30" s="56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" s="80" t="s">
+        <v>157</v>
       </c>
       <c r="C30" s="38" t="s">
         <v>75</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F30" s="10"/>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="52"/>
-      <c r="B31" s="82"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="80"/>
       <c r="C31" s="38" t="s">
         <v>76</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="56"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="38" t="s">
         <v>77</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F32" s="10"/>
       <c r="G32" s="6"/>
@@ -9547,6 +9550,10 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="A6:A8"/>
@@ -9563,10 +9570,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -9591,51 +9594,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -9653,16 +9656,16 @@
       <c r="E4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
@@ -9682,34 +9685,34 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="83">
+      <c r="A7" s="84">
         <v>1</v>
       </c>
-      <c r="B7" s="83" t="s">
-        <v>150</v>
+      <c r="B7" s="84" t="s">
+        <v>149</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -9722,13 +9725,13 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="83"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -9741,13 +9744,13 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="83"/>
-      <c r="B9" s="83"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -9760,17 +9763,17 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="84">
+      <c r="A10" s="85">
         <v>2</v>
       </c>
-      <c r="B10" s="84" t="s">
-        <v>152</v>
+      <c r="B10" s="85" t="s">
+        <v>151</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -9783,13 +9786,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="84"/>
-      <c r="B11" s="84"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -9802,13 +9805,13 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="84"/>
-      <c r="B12" s="84"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
       <c r="C12" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -9821,17 +9824,17 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="82">
+      <c r="A13" s="80">
         <v>3</v>
       </c>
-      <c r="B13" s="82" t="s">
-        <v>170</v>
+      <c r="B13" s="80" t="s">
+        <v>169</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -9844,13 +9847,13 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="82"/>
-      <c r="B14" s="82"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -9863,13 +9866,13 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="82"/>
-      <c r="B15" s="82"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -9882,17 +9885,17 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="84">
+      <c r="A16" s="85">
         <v>4</v>
       </c>
-      <c r="B16" s="84" t="s">
-        <v>153</v>
+      <c r="B16" s="85" t="s">
+        <v>152</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -9905,13 +9908,13 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="84"/>
-      <c r="B17" s="84"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -9924,13 +9927,13 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="84"/>
-      <c r="B18" s="84"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -9943,17 +9946,17 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="82">
+      <c r="A19" s="80">
         <v>5</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>154</v>
+      <c r="B19" s="80" t="s">
+        <v>153</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -9966,13 +9969,13 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="82"/>
-      <c r="B20" s="82"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -9985,13 +9988,13 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="82"/>
-      <c r="B21" s="82"/>
+      <c r="A21" s="80"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -10004,17 +10007,17 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="84">
+      <c r="A22" s="85">
         <v>6</v>
       </c>
-      <c r="B22" s="84" t="s">
-        <v>155</v>
+      <c r="B22" s="85" t="s">
+        <v>154</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -10027,13 +10030,13 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="84"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -10046,13 +10049,13 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -10065,17 +10068,17 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="84">
+      <c r="A25" s="85">
         <v>7</v>
       </c>
-      <c r="B25" s="84" t="s">
-        <v>156</v>
+      <c r="B25" s="85" t="s">
+        <v>155</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -10088,13 +10091,13 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="84"/>
-      <c r="B26" s="84"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
       <c r="C26" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -10107,13 +10110,13 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="84"/>
-      <c r="B27" s="84"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
       <c r="C27" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -10126,17 +10129,17 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="82">
+      <c r="A28" s="80">
         <v>8</v>
       </c>
-      <c r="B28" s="82" t="s">
-        <v>157</v>
+      <c r="B28" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -10149,13 +10152,13 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="82"/>
-      <c r="B29" s="82"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="80"/>
       <c r="C29" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -10168,13 +10171,13 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="82"/>
-      <c r="B30" s="82"/>
+      <c r="A30" s="80"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -10187,17 +10190,17 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="82">
+      <c r="A31" s="80">
         <v>9</v>
       </c>
-      <c r="B31" s="82" t="s">
-        <v>158</v>
+      <c r="B31" s="80" t="s">
+        <v>157</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -10210,13 +10213,13 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="82"/>
-      <c r="B32" s="82"/>
+      <c r="A32" s="80"/>
+      <c r="B32" s="80"/>
       <c r="C32" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -10229,13 +10232,13 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="82"/>
-      <c r="B33" s="82"/>
+      <c r="A33" s="80"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -10249,26 +10252,26 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B36" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B37" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -10303,16 +10306,10 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A31:A33"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
@@ -10320,10 +10317,16 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10332,10 +10335,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A2:T24"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10348,26 +10351,26 @@
     <col min="6" max="6" width="4.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="19"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="19"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="19"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="86" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>78</v>
       </c>
@@ -10378,122 +10381,119 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="29">
         <v>43003</v>
       </c>
-      <c r="B8" s="81">
+      <c r="B8" s="46">
         <v>27</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="46">
         <v>27</v>
       </c>
-      <c r="E8" s="74" t="s">
+      <c r="E8" s="77" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="74"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="F8" s="77"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="29">
         <v>43006</v>
       </c>
-      <c r="B9" s="81">
+      <c r="B9" s="46">
         <v>22</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="46">
         <v>27</v>
       </c>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="29">
         <v>43010</v>
       </c>
-      <c r="B10" s="81">
+      <c r="B10" s="46">
         <v>18</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="46">
         <v>27</v>
       </c>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>43013</v>
       </c>
-      <c r="B11" s="81">
+      <c r="B11" s="46">
         <v>13</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="46">
         <v>27</v>
       </c>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="29">
         <v>43015</v>
       </c>
-      <c r="B12" s="81">
+      <c r="B12" s="46">
         <v>7</v>
       </c>
-      <c r="C12" s="81">
+      <c r="C12" s="46">
         <v>27</v>
       </c>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="29">
         <v>43017</v>
       </c>
-      <c r="B13" s="81">
+      <c r="B13" s="46">
         <v>4</v>
       </c>
-      <c r="C13" s="81">
+      <c r="C13" s="46">
         <v>27</v>
       </c>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="29"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="T14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="77"/>
+      <c r="F16" s="77"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="77"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="33"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="34"/>
-      <c r="I20" s="75" t="s">
+      <c r="I20" s="78" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="75"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="33"/>
@@ -10533,8 +10533,8 @@
   </sheetPr>
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10549,15 +10549,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
     </row>
     <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -10592,325 +10592,325 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
-        <v>218</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
+      <c r="A5" s="58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>159</v>
+      <c r="A6" s="56" t="s">
+        <v>267</v>
+      </c>
+      <c r="B6" s="81" t="s">
+        <v>158</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="52"/>
-      <c r="B7" s="61"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="38" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="52" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>161</v>
+      <c r="A8" s="56" t="s">
+        <v>268</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>160</v>
       </c>
       <c r="C8" s="38" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="6"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="62"/>
       <c r="C9" s="38" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F9" s="10"/>
       <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="52"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="38" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F10" s="10"/>
       <c r="G10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="52"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="56"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="38" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="38" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C12" s="38" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
-        <v>271</v>
-      </c>
-      <c r="B13" s="53" t="s">
-        <v>164</v>
+      <c r="A13" s="56" t="s">
+        <v>270</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>163</v>
       </c>
       <c r="C13" s="38" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="62"/>
       <c r="C14" s="38" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="52"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="38" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="6"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>108</v>
+      <c r="A16" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="B16" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C16" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="52"/>
-      <c r="B17" s="50"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="52"/>
       <c r="C17" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="52"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="56"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="D18" s="85" t="s">
-        <v>286</v>
+        <v>299</v>
+      </c>
+      <c r="D18" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="6"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>109</v>
+      <c r="A19" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>108</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F19" s="10"/>
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="52"/>
-      <c r="B20" s="84"/>
+      <c r="A20" s="56"/>
+      <c r="B20" s="85"/>
       <c r="C20" s="38" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="10"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="52"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>286</v>
+        <v>302</v>
+      </c>
+      <c r="D21" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="B22" s="84" t="s">
-        <v>112</v>
+      <c r="A22" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="85" t="s">
+        <v>111</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="52"/>
-      <c r="B23" s="84"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="52"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="D24" s="86" t="s">
-        <v>286</v>
+        <v>305</v>
+      </c>
+      <c r="D24" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F24" s="10"/>
       <c r="G24" s="6"/>
@@ -10924,20 +10924,20 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -10962,51 +10962,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="67"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="70"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="69"/>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="71"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="73"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
@@ -11024,16 +11024,16 @@
       <c r="E4" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="74" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="73"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="75"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
@@ -11053,34 +11053,34 @@
       <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="80" t="s">
+      <c r="A6" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="80"/>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="60">
+      <c r="A7" s="81">
         <v>1</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>159</v>
+      <c r="B7" s="81" t="s">
+        <v>158</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -11093,13 +11093,13 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -11112,17 +11112,17 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+      <c r="A9" s="61">
         <v>2</v>
       </c>
-      <c r="B9" s="53" t="s">
-        <v>161</v>
+      <c r="B9" s="61" t="s">
+        <v>160</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -11135,13 +11135,13 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="62"/>
+      <c r="B10" s="62"/>
       <c r="C10" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -11154,13 +11154,13 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="62"/>
       <c r="C11" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -11173,13 +11173,13 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="62"/>
+      <c r="B12" s="62"/>
       <c r="C12" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -11196,13 +11196,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -11215,17 +11215,17 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="53">
+      <c r="A14" s="61">
         <v>4</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>164</v>
+      <c r="B14" s="61" t="s">
+        <v>163</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -11238,13 +11238,13 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
       <c r="C15" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -11257,13 +11257,13 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
       <c r="C16" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -11276,17 +11276,17 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="49">
+      <c r="A17" s="51">
         <v>5</v>
       </c>
-      <c r="B17" s="49" t="s">
-        <v>108</v>
+      <c r="B17" s="51" t="s">
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -11299,13 +11299,13 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="50"/>
-      <c r="B18" s="50"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="C18" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -11318,13 +11318,13 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="50"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="85" t="s">
-        <v>286</v>
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="47" t="s">
+        <v>285</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -11337,17 +11337,17 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="84">
+      <c r="A20" s="85">
         <v>6</v>
       </c>
-      <c r="B20" s="84" t="s">
-        <v>109</v>
+      <c r="B20" s="85" t="s">
+        <v>108</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -11360,13 +11360,13 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="84"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -11379,13 +11379,13 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="84"/>
-      <c r="B22" s="84"/>
-      <c r="C22" s="86" t="s">
-        <v>286</v>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -11398,17 +11398,17 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="84">
+      <c r="A23" s="85">
         <v>7</v>
       </c>
-      <c r="B23" s="84" t="s">
-        <v>112</v>
+      <c r="B23" s="85" t="s">
+        <v>111</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -11421,13 +11421,13 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
       <c r="C24" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -11440,13 +11440,13 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="84"/>
-      <c r="B25" s="84"/>
-      <c r="C25" s="86" t="s">
-        <v>286</v>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="48" t="s">
+        <v>285</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -11460,26 +11460,26 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
@@ -11514,21 +11514,21 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Product Backlog Titans.xlsx
+++ b/Product Backlog Titans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College Things\Projects\titans\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College Things\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E8CE2E12-4086-4DA4-968C-34E590A5C3DA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D3DF830-43A8-4352-8CEC-F8EA85D3CEC5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="936" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="936" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="340">
   <si>
     <t>PRODUCT BACKLOG</t>
   </si>
@@ -1051,10 +1051,10 @@
     <t>IN PROGRESS</t>
   </si>
   <si>
-    <t>NOT STARTED</t>
-  </si>
-  <si>
     <t>NOT COMPLETED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analyse the content of the person I want to follow  </t>
   </si>
 </sst>
 </file>
@@ -1488,10 +1488,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1500,19 +1513,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1522,12 +1532,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1535,6 +1539,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1599,13 +1606,6 @@
     </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3584,7 +3584,7 @@
   </sheetPr>
   <dimension ref="A3:I200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -3602,17 +3602,17 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
     </row>
     <row r="4" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D4" s="32" t="s">
@@ -3621,33 +3621,33 @@
       <c r="E4" s="33"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="46" t="s">
+      <c r="H5" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="46" t="s">
+      <c r="I5" s="49" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
@@ -3657,10 +3657,10 @@
       <c r="E6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="13"/>
-      <c r="H7" s="85">
+      <c r="H7" s="47">
         <v>43347</v>
       </c>
       <c r="I7" s="13"/>
@@ -3707,7 +3707,7 @@
         <v>1</v>
       </c>
       <c r="G8" s="13"/>
-      <c r="H8" s="85">
+      <c r="H8" s="47">
         <v>43347</v>
       </c>
       <c r="I8" s="13"/>
@@ -3732,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="G9" s="13"/>
-      <c r="H9" s="85">
+      <c r="H9" s="47">
         <v>43347</v>
       </c>
       <c r="I9" s="13"/>
@@ -3757,7 +3757,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="13"/>
-      <c r="H10" s="85">
+      <c r="H10" s="47">
         <v>43347</v>
       </c>
       <c r="I10" s="13"/>
@@ -3782,7 +3782,7 @@
         <v>1</v>
       </c>
       <c r="G11" s="13"/>
-      <c r="H11" s="85">
+      <c r="H11" s="47">
         <v>43347</v>
       </c>
       <c r="I11" s="13"/>
@@ -3807,7 +3807,7 @@
         <v>1</v>
       </c>
       <c r="G12" s="13"/>
-      <c r="H12" s="85">
+      <c r="H12" s="47">
         <v>43354</v>
       </c>
       <c r="I12" s="13"/>
@@ -3832,7 +3832,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="13"/>
-      <c r="H13" s="85">
+      <c r="H13" s="47">
         <v>43355</v>
       </c>
       <c r="I13" s="13"/>
@@ -3857,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="13"/>
-      <c r="H14" s="85">
+      <c r="H14" s="47">
         <v>43357</v>
       </c>
       <c r="I14" s="13"/>
@@ -3882,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="G15" s="13"/>
-      <c r="H15" s="85">
+      <c r="H15" s="47">
         <v>43357</v>
       </c>
       <c r="I15" s="13"/>
@@ -3905,7 +3905,7 @@
         <v>1</v>
       </c>
       <c r="G16" s="13"/>
-      <c r="H16" s="85">
+      <c r="H16" s="47">
         <v>43359</v>
       </c>
       <c r="I16" s="13"/>
@@ -3930,7 +3930,7 @@
         <v>1</v>
       </c>
       <c r="G17" s="13"/>
-      <c r="H17" s="85">
+      <c r="H17" s="47">
         <v>43359</v>
       </c>
       <c r="I17" s="13"/>
@@ -3955,7 +3955,7 @@
         <v>1</v>
       </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="85">
+      <c r="H18" s="47">
         <v>43361</v>
       </c>
       <c r="I18" s="13"/>
@@ -3980,7 +3980,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="85">
+      <c r="H19" s="47">
         <v>43368</v>
       </c>
       <c r="I19" s="13"/>
@@ -4005,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="13"/>
-      <c r="H20" s="85">
+      <c r="H20" s="47">
         <v>43368</v>
       </c>
       <c r="I20" s="13"/>
@@ -4030,7 +4030,7 @@
         <v>2</v>
       </c>
       <c r="G21" s="13"/>
-      <c r="H21" s="85">
+      <c r="H21" s="47">
         <v>43371</v>
       </c>
       <c r="I21" s="13"/>
@@ -4055,7 +4055,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="13"/>
-      <c r="H22" s="85">
+      <c r="H22" s="47">
         <v>43375</v>
       </c>
       <c r="I22" s="13"/>
@@ -4080,7 +4080,7 @@
         <v>2</v>
       </c>
       <c r="G23" s="13"/>
-      <c r="H23" s="85">
+      <c r="H23" s="47">
         <v>43375</v>
       </c>
       <c r="I23" s="13"/>
@@ -4105,7 +4105,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="13"/>
-      <c r="H24" s="85">
+      <c r="H24" s="47">
         <v>43378</v>
       </c>
       <c r="I24" s="13"/>
@@ -4130,7 +4130,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="13"/>
-      <c r="H25" s="85">
+      <c r="H25" s="47">
         <v>43378</v>
       </c>
       <c r="I25" s="13"/>
@@ -4155,7 +4155,7 @@
         <v>2</v>
       </c>
       <c r="G26" s="13"/>
-      <c r="H26" s="85">
+      <c r="H26" s="47">
         <v>43380</v>
       </c>
       <c r="I26" s="13"/>
@@ -4180,7 +4180,7 @@
         <v>2</v>
       </c>
       <c r="G27" s="13"/>
-      <c r="H27" s="85">
+      <c r="H27" s="47">
         <v>43382</v>
       </c>
       <c r="I27" s="13"/>
@@ -4205,7 +4205,7 @@
         <v>3</v>
       </c>
       <c r="G28" s="13"/>
-      <c r="H28" s="85">
+      <c r="H28" s="47">
         <v>43389</v>
       </c>
       <c r="I28" s="13"/>
@@ -4230,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="G29" s="13"/>
-      <c r="H29" s="85">
+      <c r="H29" s="47">
         <v>43391</v>
       </c>
       <c r="I29" s="13"/>
@@ -4253,7 +4253,7 @@
         <v>3</v>
       </c>
       <c r="G30" s="13"/>
-      <c r="H30" s="85">
+      <c r="H30" s="47">
         <v>43391</v>
       </c>
       <c r="I30" s="13"/>
@@ -4278,7 +4278,7 @@
         <v>3</v>
       </c>
       <c r="G31" s="13"/>
-      <c r="H31" s="85">
+      <c r="H31" s="47">
         <v>43393</v>
       </c>
       <c r="I31" s="13"/>
@@ -4303,7 +4303,7 @@
         <v>3</v>
       </c>
       <c r="G32" s="13"/>
-      <c r="H32" s="85">
+      <c r="H32" s="47">
         <v>43394</v>
       </c>
       <c r="I32" s="13"/>
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="G33" s="13"/>
-      <c r="H33" s="85">
+      <c r="H33" s="47">
         <v>43395</v>
       </c>
       <c r="I33" s="13"/>
@@ -4353,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="G34" s="13"/>
-      <c r="H34" s="85">
+      <c r="H34" s="47">
         <v>43396</v>
       </c>
       <c r="I34" s="13"/>
@@ -4378,7 +4378,7 @@
         <v>3</v>
       </c>
       <c r="G35" s="13"/>
-      <c r="H35" s="85">
+      <c r="H35" s="47">
         <v>43475</v>
       </c>
       <c r="I35" s="13"/>
@@ -4403,7 +4403,7 @@
         <v>3</v>
       </c>
       <c r="G36" s="13"/>
-      <c r="H36" s="85">
+      <c r="H36" s="47">
         <v>43476</v>
       </c>
       <c r="I36" s="13"/>
@@ -4428,7 +4428,7 @@
         <v>3</v>
       </c>
       <c r="G37" s="13"/>
-      <c r="H37" s="85">
+      <c r="H37" s="47">
         <v>43477</v>
       </c>
       <c r="I37" s="13"/>
@@ -4453,7 +4453,7 @@
         <v>3</v>
       </c>
       <c r="G38" s="13"/>
-      <c r="H38" s="85">
+      <c r="H38" s="47">
         <v>43478</v>
       </c>
       <c r="I38" s="13"/>
@@ -4478,7 +4478,7 @@
         <v>3</v>
       </c>
       <c r="G39" s="13"/>
-      <c r="H39" s="85">
+      <c r="H39" s="47">
         <v>43479</v>
       </c>
       <c r="I39" s="13"/>
@@ -4503,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="G40" s="13"/>
-      <c r="H40" s="85">
+      <c r="H40" s="47">
         <v>43480</v>
       </c>
       <c r="I40" s="13"/>
@@ -6302,11 +6302,11 @@
       <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="85" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -6332,10 +6332,10 @@
       <c r="C8" s="42">
         <v>19</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
@@ -6347,8 +6347,8 @@
       <c r="C9" s="42">
         <v>19</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
@@ -6360,8 +6360,8 @@
       <c r="C10" s="42">
         <v>19</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
@@ -6373,8 +6373,8 @@
       <c r="C11" s="42">
         <v>19</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
@@ -6386,8 +6386,8 @@
       <c r="C12" s="42">
         <v>19</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
@@ -6399,42 +6399,42 @@
       <c r="C13" s="42">
         <v>19</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="A14" s="45"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
@@ -6483,15 +6483,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -6526,21 +6526,21 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>333</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53">
+      <c r="A6" s="55">
         <v>1</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="80" t="s">
         <v>114</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -6553,15 +6553,15 @@
         <v>225</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G6" s="26">
         <v>43475</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
         <v>314</v>
       </c>
@@ -6572,15 +6572,15 @@
         <v>226</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G7" s="26">
         <v>43475</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="34" t="s">
         <v>315</v>
       </c>
@@ -6591,17 +6591,17 @@
         <v>227</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G8" s="26">
         <v>43475</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53">
+      <c r="A9" s="55">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="34" t="s">
@@ -6614,15 +6614,15 @@
         <v>225</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G9" s="26">
         <v>43476</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="34" t="s">
         <v>317</v>
       </c>
@@ -6633,15 +6633,15 @@
         <v>226</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G10" s="26">
         <v>43476</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="34" t="s">
         <v>318</v>
       </c>
@@ -6652,17 +6652,17 @@
         <v>227</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G11" s="26">
         <v>43476</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -6675,15 +6675,15 @@
         <v>225</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G12" s="26">
         <v>43477</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="34" t="s">
         <v>320</v>
       </c>
@@ -6694,15 +6694,15 @@
         <v>226</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G13" s="26">
         <v>43477</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="34" t="s">
         <v>321</v>
       </c>
@@ -6713,17 +6713,17 @@
         <v>227</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G14" s="26">
         <v>43477</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53">
+      <c r="A15" s="55">
         <v>4</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>306</v>
       </c>
       <c r="C15" s="34" t="s">
@@ -6736,15 +6736,15 @@
         <v>225</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G15" s="26">
         <v>43478</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="34" t="s">
         <v>323</v>
       </c>
@@ -6755,15 +6755,15 @@
         <v>226</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G16" s="26">
         <v>43478</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="34" t="s">
         <v>324</v>
       </c>
@@ -6774,17 +6774,17 @@
         <v>227</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G17" s="26">
         <v>43478</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="53">
+      <c r="A18" s="55">
         <v>5</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -6797,15 +6797,15 @@
         <v>227</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G18" s="26">
         <v>43478</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="34" t="s">
         <v>326</v>
       </c>
@@ -6816,15 +6816,15 @@
         <v>226</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G19" s="26">
         <v>43479</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="34" t="s">
         <v>327</v>
       </c>
@@ -6835,17 +6835,17 @@
         <v>225</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G20" s="26">
         <v>43479</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="53">
+      <c r="A21" s="55">
         <v>6</v>
       </c>
-      <c r="B21" s="80" t="s">
+      <c r="B21" s="83" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -6858,15 +6858,15 @@
         <v>198</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G21" s="26">
         <v>43479</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="34" t="s">
         <v>329</v>
       </c>
@@ -6877,15 +6877,15 @@
         <v>225</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G22" s="26">
         <v>43480</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="34" t="s">
         <v>330</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>312</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G23" s="26">
         <v>43480</v>
@@ -6949,51 +6949,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -7011,16 +7011,16 @@
       <c r="E4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
@@ -7040,27 +7040,27 @@
       <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="77">
+      <c r="A7" s="80">
         <v>1</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="80" t="s">
         <v>114</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -7080,8 +7080,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="10" t="s">
         <v>286</v>
       </c>
@@ -7099,8 +7099,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="79"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="43" t="s">
         <v>285</v>
       </c>
@@ -7118,10 +7118,10 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="58">
+      <c r="A10" s="60">
         <v>2</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="60" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -7141,8 +7141,8 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="10" t="s">
         <v>286</v>
       </c>
@@ -7160,8 +7160,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="44" t="s">
         <v>285</v>
       </c>
@@ -7179,10 +7179,10 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="47">
+      <c r="A13" s="52">
         <v>3</v>
       </c>
-      <c r="B13" s="47" t="s">
+      <c r="B13" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -7202,8 +7202,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="10" t="s">
         <v>286</v>
       </c>
@@ -7221,8 +7221,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="43" t="s">
         <v>285</v>
       </c>
@@ -7240,10 +7240,10 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="58">
+      <c r="A16" s="60">
         <v>4</v>
       </c>
-      <c r="B16" s="58" t="s">
+      <c r="B16" s="60" t="s">
         <v>306</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -7263,8 +7263,8 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="59"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="10" t="s">
         <v>286</v>
       </c>
@@ -7282,8 +7282,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="61"/>
       <c r="C18" s="43" t="s">
         <v>285</v>
       </c>
@@ -7301,10 +7301,10 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="47">
+      <c r="A19" s="52">
         <v>5</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="44" t="s">
@@ -7324,8 +7324,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="8" t="s">
         <v>307</v>
       </c>
@@ -7343,8 +7343,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="10" t="s">
         <v>308</v>
       </c>
@@ -7362,10 +7362,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="80">
+      <c r="A22" s="83">
         <v>6</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="83" t="s">
         <v>165</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7385,8 +7385,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="6" t="s">
         <v>310</v>
       </c>
@@ -7404,8 +7404,8 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="6" t="s">
         <v>311</v>
       </c>
@@ -7552,10 +7552,10 @@
       <c r="C8" s="42">
         <v>18</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
@@ -7567,8 +7567,8 @@
       <c r="C9" s="42">
         <v>18</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
@@ -7580,8 +7580,8 @@
       <c r="C10" s="42">
         <v>18</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
@@ -7593,8 +7593,8 @@
       <c r="C11" s="42">
         <v>18</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
@@ -7606,8 +7606,8 @@
       <c r="C12" s="42">
         <v>18</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
@@ -7619,42 +7619,42 @@
       <c r="C13" s="42">
         <v>18</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="A14" s="45"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
@@ -7686,7 +7686,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -7703,15 +7703,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:9" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -7746,21 +7746,21 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="60" t="s">
         <v>130</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -7781,7 +7781,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="57"/>
-      <c r="B7" s="59"/>
+      <c r="B7" s="61"/>
       <c r="C7" s="7" t="s">
         <v>29</v>
       </c>
@@ -7797,11 +7797,11 @@
       <c r="G7" s="26">
         <v>43347</v>
       </c>
-      <c r="I7" s="83"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="57"/>
-      <c r="B8" s="59"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
@@ -7817,11 +7817,11 @@
       <c r="G8" s="26">
         <v>43347</v>
       </c>
-      <c r="I8" s="83"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="57"/>
-      <c r="B9" s="59"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
       </c>
@@ -7837,13 +7837,13 @@
       <c r="G9" s="26">
         <v>43347</v>
       </c>
-      <c r="I9" s="83"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -7861,11 +7861,11 @@
       <c r="G10" s="26">
         <v>43347</v>
       </c>
-      <c r="I10" s="83"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="57"/>
-      <c r="B11" s="48"/>
+      <c r="B11" s="53"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
@@ -7881,11 +7881,11 @@
       <c r="G11" s="26">
         <v>43347</v>
       </c>
-      <c r="I11" s="83"/>
+      <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="57"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
@@ -7901,7 +7901,7 @@
       <c r="G12" s="26">
         <v>43347</v>
       </c>
-      <c r="I12" s="83"/>
+      <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56" t="s">
@@ -7973,7 +7973,7 @@
       <c r="A16" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="52" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -7994,7 +7994,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="57"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -8038,7 +8038,7 @@
       <c r="A19" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="52" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -8059,7 +8059,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="57"/>
-      <c r="B20" s="48"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
@@ -8078,7 +8078,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="57"/>
-      <c r="B21" s="48"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
@@ -8096,8 +8096,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="60"/>
-      <c r="B22" s="49"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="63"/>
       <c r="C22" s="7" t="s">
         <v>44</v>
       </c>
@@ -8203,10 +8203,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="52" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -8226,8 +8226,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
@@ -8245,7 +8245,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="53" t="s">
+      <c r="A29" s="55" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="50" t="s">
@@ -8268,7 +8268,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="53"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="51"/>
       <c r="C30" s="7" t="s">
         <v>52</v>
@@ -8287,8 +8287,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="52"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="54"/>
       <c r="C31" s="7" t="s">
         <v>53</v>
       </c>
@@ -8319,13 +8319,13 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B19:B22"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="B29:B31"/>
@@ -8358,51 +8358,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -8420,16 +8420,16 @@
       <c r="E4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
@@ -8449,27 +8449,27 @@
       <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="59">
+      <c r="A7" s="61">
         <v>1</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="61" t="s">
         <v>130</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -8489,8 +8489,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="59"/>
-      <c r="B8" s="59"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="6" t="s">
         <v>199</v>
       </c>
@@ -8508,8 +8508,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="6" t="s">
         <v>200</v>
       </c>
@@ -8527,8 +8527,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="6" t="s">
         <v>201</v>
       </c>
@@ -8546,10 +8546,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="47">
+      <c r="A11" s="52">
         <v>2</v>
       </c>
-      <c r="B11" s="47" t="s">
+      <c r="B11" s="52" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8569,8 +8569,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="6" t="s">
         <v>212</v>
       </c>
@@ -8588,8 +8588,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="6" t="s">
         <v>213</v>
       </c>
@@ -8672,10 +8672,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="52">
         <v>5</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -8695,8 +8695,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="11" t="s">
         <v>219</v>
       </c>
@@ -8737,10 +8737,10 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="47">
+      <c r="A20" s="52">
         <v>7</v>
       </c>
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="52" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -8760,8 +8760,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="53"/>
       <c r="C21" s="8" t="s">
         <v>222</v>
       </c>
@@ -8779,8 +8779,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="53"/>
       <c r="C22" s="10" t="s">
         <v>223</v>
       </c>
@@ -8798,8 +8798,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="49"/>
-      <c r="B23" s="49"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="63"/>
       <c r="C23" s="6" t="s">
         <v>224</v>
       </c>
@@ -8905,10 +8905,10 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="47">
+      <c r="A28" s="52">
         <v>11</v>
       </c>
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="52" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -8928,8 +8928,8 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="48"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="8" t="s">
         <v>233</v>
       </c>
@@ -8989,8 +8989,8 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="8" t="s">
         <v>236</v>
       </c>
@@ -9063,25 +9063,25 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9119,11 +9119,11 @@
       <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -9149,10 +9149,10 @@
       <c r="C8" s="42">
         <v>26</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
@@ -9164,8 +9164,8 @@
       <c r="C9" s="42">
         <v>16</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
@@ -9177,8 +9177,8 @@
       <c r="C10" s="42">
         <v>16</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
@@ -9190,8 +9190,8 @@
       <c r="C11" s="42">
         <v>16</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
@@ -9203,8 +9203,8 @@
       <c r="C12" s="42">
         <v>16</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
@@ -9216,45 +9216,45 @@
       <c r="C13" s="42">
         <v>16</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="83"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="84"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
@@ -9300,8 +9300,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9316,15 +9316,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -9359,21 +9359,21 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>334</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>202</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="80" t="s">
         <v>149</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -9393,8 +9393,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="15" t="s">
         <v>55</v>
       </c>
@@ -9412,8 +9412,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="15" t="s">
         <v>56</v>
       </c>
@@ -9431,10 +9431,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>151</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -9454,8 +9454,8 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="15" t="s">
         <v>58</v>
       </c>
@@ -9473,8 +9473,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="15" t="s">
         <v>59</v>
       </c>
@@ -9492,10 +9492,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="55" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="52" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -9515,8 +9515,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="48"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="53"/>
       <c r="C13" s="15" t="s">
         <v>61</v>
       </c>
@@ -9534,8 +9534,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="48"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="15" t="s">
         <v>62</v>
       </c>
@@ -9553,10 +9553,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>152</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -9576,8 +9576,8 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="15" t="s">
         <v>64</v>
       </c>
@@ -9595,8 +9595,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="59"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="15" t="s">
         <v>65</v>
       </c>
@@ -9614,10 +9614,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="52" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -9637,8 +9637,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="15" t="s">
         <v>67</v>
       </c>
@@ -9656,8 +9656,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="53"/>
       <c r="C20" s="15" t="s">
         <v>68</v>
       </c>
@@ -9675,10 +9675,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="58" t="s">
+      <c r="B21" s="60" t="s">
         <v>154</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -9698,8 +9698,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="61"/>
       <c r="C22" s="15" t="s">
         <v>70</v>
       </c>
@@ -9717,8 +9717,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="61"/>
       <c r="C23" s="15" t="s">
         <v>71</v>
       </c>
@@ -9736,10 +9736,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="55" t="s">
         <v>208</v>
       </c>
-      <c r="B24" s="58" t="s">
+      <c r="B24" s="60" t="s">
         <v>155</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -9751,14 +9751,16 @@
       <c r="E24" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G24" s="26">
         <v>43378</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="61"/>
       <c r="C25" s="15" t="s">
         <v>73</v>
       </c>
@@ -9768,14 +9770,16 @@
       <c r="E25" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G25" s="26">
         <v>43378</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="61"/>
       <c r="C26" s="15" t="s">
         <v>74</v>
       </c>
@@ -9785,16 +9789,18 @@
       <c r="E26" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G26" s="26">
         <v>43380</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="52" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -9806,14 +9812,16 @@
       <c r="E27" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G27" s="26">
         <v>43380</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="48"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="53"/>
       <c r="C28" s="15" t="s">
         <v>76</v>
       </c>
@@ -9823,14 +9831,16 @@
       <c r="E28" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G28" s="26">
         <v>43380</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="48"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="15" t="s">
         <v>77</v>
       </c>
@@ -9840,16 +9850,18 @@
       <c r="E29" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G29" s="26">
         <v>43382</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="55" t="s">
         <v>210</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="79" t="s">
         <v>157</v>
       </c>
       <c r="C30" s="34" t="s">
@@ -9861,14 +9873,16 @@
       <c r="E30" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G30" s="26">
         <v>43382</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="76"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="79"/>
       <c r="C31" s="34" t="s">
         <v>76</v>
       </c>
@@ -9878,14 +9892,16 @@
       <c r="E31" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G31" s="26">
         <v>43382</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="53"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="34" t="s">
         <v>77</v>
       </c>
@@ -9895,7 +9911,9 @@
       <c r="E32" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>336</v>
+      </c>
       <c r="G32" s="26">
         <v>43382</v>
       </c>
@@ -9909,6 +9927,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
@@ -9917,18 +9947,6 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -9940,7 +9958,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -9953,51 +9971,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -10015,16 +10033,16 @@
       <c r="E4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
@@ -10044,27 +10062,27 @@
       <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="81">
+      <c r="A7" s="84">
         <v>1</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="84" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -10084,8 +10102,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="81"/>
-      <c r="B8" s="81"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="8" t="s">
         <v>238</v>
       </c>
@@ -10103,8 +10121,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="81"/>
-      <c r="B9" s="81"/>
+      <c r="A9" s="84"/>
+      <c r="B9" s="84"/>
       <c r="C9" s="8" t="s">
         <v>239</v>
       </c>
@@ -10122,10 +10140,10 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="80">
+      <c r="A10" s="83">
         <v>2</v>
       </c>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="83" t="s">
         <v>151</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -10145,8 +10163,8 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="80"/>
-      <c r="B11" s="80"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="8" t="s">
         <v>241</v>
       </c>
@@ -10164,8 +10182,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="80"/>
-      <c r="B12" s="80"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="8" t="s">
         <v>242</v>
       </c>
@@ -10183,10 +10201,10 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="76">
+      <c r="A13" s="79">
         <v>3</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="79" t="s">
         <v>169</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -10206,8 +10224,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="76"/>
-      <c r="B14" s="76"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="8" t="s">
         <v>244</v>
       </c>
@@ -10225,8 +10243,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="76"/>
-      <c r="B15" s="76"/>
+      <c r="A15" s="79"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="8" t="s">
         <v>245</v>
       </c>
@@ -10244,10 +10262,10 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="80">
+      <c r="A16" s="83">
         <v>4</v>
       </c>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="83" t="s">
         <v>152</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -10267,8 +10285,8 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="80"/>
-      <c r="B17" s="80"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="8" t="s">
         <v>247</v>
       </c>
@@ -10286,8 +10304,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="80"/>
-      <c r="B18" s="80"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="8" t="s">
         <v>248</v>
       </c>
@@ -10305,10 +10323,10 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="76">
+      <c r="A19" s="79">
         <v>5</v>
       </c>
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="79" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -10328,8 +10346,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="76"/>
-      <c r="B20" s="76"/>
+      <c r="A20" s="79"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="8" t="s">
         <v>250</v>
       </c>
@@ -10347,8 +10365,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="76"/>
-      <c r="B21" s="76"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="8" t="s">
         <v>251</v>
       </c>
@@ -10366,10 +10384,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="80">
+      <c r="A22" s="83">
         <v>6</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="83" t="s">
         <v>154</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -10389,8 +10407,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="80"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="8" t="s">
         <v>253</v>
       </c>
@@ -10408,8 +10426,8 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="8" t="s">
         <v>254</v>
       </c>
@@ -10427,10 +10445,10 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="80">
+      <c r="A25" s="83">
         <v>7</v>
       </c>
-      <c r="B25" s="80" t="s">
+      <c r="B25" s="83" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -10450,8 +10468,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="80"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="83"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="8" t="s">
         <v>262</v>
       </c>
@@ -10469,8 +10487,8 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="80"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
       <c r="C27" s="8" t="s">
         <v>263</v>
       </c>
@@ -10488,10 +10506,10 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="76">
+      <c r="A28" s="79">
         <v>8</v>
       </c>
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="79" t="s">
         <v>156</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -10511,8 +10529,8 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="8" t="s">
         <v>256</v>
       </c>
@@ -10530,8 +10548,8 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="8" t="s">
         <v>257</v>
       </c>
@@ -10549,10 +10567,10 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="76">
+      <c r="A31" s="79">
         <v>9</v>
       </c>
-      <c r="B31" s="76" t="s">
+      <c r="B31" s="79" t="s">
         <v>157</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -10572,8 +10590,8 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="8" t="s">
         <v>259</v>
       </c>
@@ -10591,8 +10609,8 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="76"/>
-      <c r="B33" s="76"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="8" t="s">
         <v>260</v>
       </c>
@@ -10665,27 +10683,27 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B16:B18"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A25:A27"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
     <mergeCell ref="B19:B21"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10720,11 +10738,11 @@
       <c r="A4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16"/>
@@ -10750,10 +10768,10 @@
       <c r="C8" s="42">
         <v>27</v>
       </c>
-      <c r="E8" s="73" t="s">
+      <c r="E8" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="73"/>
+      <c r="F8" s="76"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="26">
@@ -10765,8 +10783,8 @@
       <c r="C9" s="42">
         <v>27</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="26">
@@ -10778,8 +10796,8 @@
       <c r="C10" s="42">
         <v>27</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="26">
@@ -10791,8 +10809,8 @@
       <c r="C11" s="42">
         <v>27</v>
       </c>
-      <c r="E11" s="73"/>
-      <c r="F11" s="73"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="26">
@@ -10804,8 +10822,8 @@
       <c r="C12" s="42">
         <v>27</v>
       </c>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="26">
@@ -10817,42 +10835,42 @@
       <c r="C13" s="42">
         <v>27</v>
       </c>
-      <c r="E13" s="73"/>
-      <c r="F13" s="73"/>
+      <c r="E13" s="76"/>
+      <c r="F13" s="76"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="76"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
+      <c r="E15" s="76"/>
+      <c r="F15" s="76"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
-      <c r="I20" s="74" t="s">
+      <c r="I20" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="J20" s="74"/>
-      <c r="K20" s="74"/>
-      <c r="L20" s="74"/>
-      <c r="M20" s="74"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
+      <c r="L20" s="77"/>
+      <c r="M20" s="77"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="29"/>
@@ -10893,7 +10911,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="F6" sqref="F6:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10908,15 +10926,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="3" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
@@ -10951,21 +10969,21 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>335</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="80" t="s">
         <v>158</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -10978,15 +10996,15 @@
         <v>198</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G6" s="26">
         <v>43389</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="78"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
         <v>288</v>
       </c>
@@ -10997,17 +11015,17 @@
         <v>198</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G7" s="26">
         <v>43389</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="55" t="s">
         <v>268</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="60" t="s">
         <v>160</v>
       </c>
       <c r="C8" s="34" t="s">
@@ -11020,15 +11038,15 @@
         <v>198</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G8" s="26">
         <v>43389</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="59"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="61"/>
       <c r="C9" s="34" t="s">
         <v>289</v>
       </c>
@@ -11039,15 +11057,15 @@
         <v>225</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G9" s="26">
         <v>43389</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="34" t="s">
         <v>291</v>
       </c>
@@ -11058,15 +11076,15 @@
         <v>226</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G10" s="26">
         <v>43391</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="34" t="s">
         <v>292</v>
       </c>
@@ -11077,7 +11095,7 @@
         <v>227</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G11" s="26">
         <v>43391</v>
@@ -11100,17 +11118,17 @@
         <v>198</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G12" s="26">
         <v>43391</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="53" t="s">
+      <c r="A13" s="55" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="58" t="s">
+      <c r="B13" s="60" t="s">
         <v>163</v>
       </c>
       <c r="C13" s="34" t="s">
@@ -11123,15 +11141,15 @@
         <v>198</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G13" s="26">
         <v>43393</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="61"/>
       <c r="C14" s="34" t="s">
         <v>295</v>
       </c>
@@ -11142,15 +11160,15 @@
         <v>198</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G14" s="26">
         <v>43393</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="34" t="s">
         <v>296</v>
       </c>
@@ -11161,18 +11179,18 @@
         <v>198</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G15" s="26">
         <v>43393</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="55" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="47" t="s">
-        <v>107</v>
+      <c r="B16" s="52" t="s">
+        <v>339</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>297</v>
@@ -11184,15 +11202,15 @@
         <v>225</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G16" s="26">
         <v>43394</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="48"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="53"/>
       <c r="C17" s="34" t="s">
         <v>298</v>
       </c>
@@ -11203,15 +11221,15 @@
         <v>226</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G17" s="26">
         <v>43394</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="34" t="s">
         <v>299</v>
       </c>
@@ -11222,17 +11240,17 @@
         <v>227</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G18" s="26">
         <v>43394</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="83" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -11245,15 +11263,15 @@
         <v>225</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G19" s="26">
         <v>43395</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="80"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="34" t="s">
         <v>301</v>
       </c>
@@ -11264,15 +11282,15 @@
         <v>226</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G20" s="26">
         <v>43395</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="34" t="s">
         <v>302</v>
       </c>
@@ -11283,17 +11301,17 @@
         <v>227</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G21" s="26">
         <v>43395</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="83" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -11306,15 +11324,15 @@
         <v>225</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G22" s="26">
         <v>43396</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="80"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="34" t="s">
         <v>304</v>
       </c>
@@ -11325,15 +11343,15 @@
         <v>226</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G23" s="26">
         <v>43396</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="34" t="s">
         <v>305</v>
       </c>
@@ -11344,7 +11362,7 @@
         <v>227</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G24" s="26">
         <v>43396</v>
@@ -11397,51 +11415,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="66"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="66"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="67"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="69"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="72"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
@@ -11459,16 +11477,16 @@
       <c r="E4" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="70" t="s">
+      <c r="F4" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="71"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="74"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
@@ -11488,27 +11506,27 @@
       <c r="M5" s="23"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="77">
+      <c r="A7" s="80">
         <v>1</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="80" t="s">
         <v>158</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -11528,8 +11546,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
+      <c r="A8" s="81"/>
+      <c r="B8" s="81"/>
       <c r="C8" s="6" t="s">
         <v>275</v>
       </c>
@@ -11547,10 +11565,10 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="58">
+      <c r="A9" s="60">
         <v>2</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>160</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -11570,8 +11588,8 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
       <c r="C10" s="6" t="s">
         <v>277</v>
       </c>
@@ -11589,8 +11607,8 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="59"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
       <c r="C11" s="6" t="s">
         <v>279</v>
       </c>
@@ -11608,8 +11626,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="59"/>
-      <c r="B12" s="59"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="6" t="s">
         <v>278</v>
       </c>
@@ -11650,10 +11668,10 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="58">
+      <c r="A14" s="60">
         <v>4</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="B14" s="60" t="s">
         <v>163</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -11673,8 +11691,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="59"/>
-      <c r="B15" s="59"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="61"/>
       <c r="C15" s="6" t="s">
         <v>282</v>
       </c>
@@ -11692,8 +11710,8 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="61"/>
       <c r="C16" s="6" t="s">
         <v>283</v>
       </c>
@@ -11711,10 +11729,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="47">
+      <c r="A17" s="52">
         <v>5</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="52" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11734,8 +11752,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
       <c r="C18" s="10" t="s">
         <v>286</v>
       </c>
@@ -11753,8 +11771,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="53"/>
       <c r="C19" s="43" t="s">
         <v>285</v>
       </c>
@@ -11772,10 +11790,10 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="80">
+      <c r="A20" s="83">
         <v>6</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="83" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -11795,8 +11813,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="80"/>
-      <c r="B21" s="80"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="10" t="s">
         <v>286</v>
       </c>
@@ -11814,8 +11832,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="44" t="s">
         <v>285</v>
       </c>
@@ -11833,10 +11851,10 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="80">
+      <c r="A23" s="83">
         <v>7</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="B23" s="83" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -11856,8 +11874,8 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="80"/>
-      <c r="B24" s="80"/>
+      <c r="A24" s="83"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="10" t="s">
         <v>286</v>
       </c>
@@ -11875,8 +11893,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="80"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="83"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="44" t="s">
         <v>285</v>
       </c>

--- a/Product Backlog Titans.xlsx
+++ b/Product Backlog Titans.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College Things\Projects\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\College Things\Projects\titans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7D3DF830-43A8-4352-8CEC-F8EA85D3CEC5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6B038E74-E614-4794-9891-F196A2BDF915}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="936" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" tabRatio="936" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProductBacklog" sheetId="1" r:id="rId1"/>
@@ -1501,6 +1501,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1513,17 +1519,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1537,11 +1537,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1598,11 +1598,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1774,13 +1774,13 @@
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,19 +2028,19 @@
                   <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2288,19 +2288,19 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3584,7 +3584,7 @@
   </sheetPr>
   <dimension ref="A3:I200"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
@@ -6278,8 +6278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6345,7 +6345,7 @@
         <v>15</v>
       </c>
       <c r="C9" s="42">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
@@ -6358,7 +6358,7 @@
         <v>12</v>
       </c>
       <c r="C10" s="42">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
@@ -6371,7 +6371,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="42">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
@@ -6397,7 +6397,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="42">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -6537,7 +6537,7 @@
       <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55">
+      <c r="A6" s="63">
         <v>1</v>
       </c>
       <c r="B6" s="80" t="s">
@@ -6560,7 +6560,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
         <v>314</v>
@@ -6579,7 +6579,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="82"/>
       <c r="C8" s="34" t="s">
         <v>315</v>
@@ -6598,7 +6598,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="55">
+      <c r="A9" s="63">
         <v>2</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -6621,7 +6621,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="61"/>
       <c r="C10" s="34" t="s">
         <v>317</v>
@@ -6640,7 +6640,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="61"/>
       <c r="C11" s="34" t="s">
         <v>318</v>
@@ -6659,10 +6659,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="55">
+      <c r="A12" s="63">
         <v>3</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="54" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="34" t="s">
@@ -6682,8 +6682,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="34" t="s">
         <v>320</v>
       </c>
@@ -6701,8 +6701,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="34" t="s">
         <v>321</v>
       </c>
@@ -6720,7 +6720,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="55">
+      <c r="A15" s="63">
         <v>4</v>
       </c>
       <c r="B15" s="60" t="s">
@@ -6743,7 +6743,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="61"/>
       <c r="C16" s="34" t="s">
         <v>323</v>
@@ -6762,7 +6762,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="61"/>
       <c r="C17" s="34" t="s">
         <v>324</v>
@@ -6781,10 +6781,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="55">
+      <c r="A18" s="63">
         <v>5</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="54" t="s">
         <v>128</v>
       </c>
       <c r="C18" s="34" t="s">
@@ -6804,8 +6804,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="34" t="s">
         <v>326</v>
       </c>
@@ -6823,8 +6823,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="34" t="s">
         <v>327</v>
       </c>
@@ -6842,10 +6842,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="55">
+      <c r="A21" s="63">
         <v>6</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>165</v>
       </c>
       <c r="C21" s="34" t="s">
@@ -6865,8 +6865,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="34" t="s">
         <v>329</v>
       </c>
@@ -6884,8 +6884,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="34" t="s">
         <v>330</v>
       </c>
@@ -6911,12 +6911,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="B21:B23"/>
     <mergeCell ref="A12:A14"/>
@@ -6925,6 +6919,12 @@
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -7179,10 +7179,10 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="52">
+      <c r="A13" s="54">
         <v>3</v>
       </c>
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="54" t="s">
         <v>120</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -7202,8 +7202,8 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="10" t="s">
         <v>286</v>
       </c>
@@ -7221,8 +7221,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="53"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
       <c r="C15" s="43" t="s">
         <v>285</v>
       </c>
@@ -7301,10 +7301,10 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="52">
+      <c r="A19" s="54">
         <v>5</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="54" t="s">
         <v>128</v>
       </c>
       <c r="C19" s="44" t="s">
@@ -7324,8 +7324,8 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="8" t="s">
         <v>307</v>
       </c>
@@ -7343,8 +7343,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="10" t="s">
         <v>308</v>
       </c>
@@ -7362,10 +7362,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="83">
+      <c r="A22" s="84">
         <v>6</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>165</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -7385,8 +7385,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="6" t="s">
         <v>310</v>
       </c>
@@ -7404,8 +7404,8 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="6" t="s">
         <v>311</v>
       </c>
@@ -7478,21 +7478,21 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7686,7 +7686,7 @@
   </sheetPr>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -7757,7 +7757,7 @@
       <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="50" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="60" t="s">
@@ -7780,7 +7780,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="57"/>
+      <c r="A7" s="51"/>
       <c r="B7" s="61"/>
       <c r="C7" s="7" t="s">
         <v>29</v>
@@ -7800,7 +7800,7 @@
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="57"/>
+      <c r="A8" s="51"/>
       <c r="B8" s="61"/>
       <c r="C8" s="7" t="s">
         <v>30</v>
@@ -7820,7 +7820,7 @@
       <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
+      <c r="A9" s="51"/>
       <c r="B9" s="61"/>
       <c r="C9" s="7" t="s">
         <v>31</v>
@@ -7840,10 +7840,10 @@
       <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="54" t="s">
         <v>132</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -7864,8 +7864,8 @@
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
-      <c r="B11" s="53"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="55"/>
       <c r="C11" s="7" t="s">
         <v>33</v>
       </c>
@@ -7884,8 +7884,8 @@
       <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="57"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="7" t="s">
         <v>34</v>
       </c>
@@ -7904,10 +7904,10 @@
       <c r="I12" s="45"/>
     </row>
     <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="52" t="s">
         <v>134</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -7928,8 +7928,8 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="57"/>
-      <c r="B14" s="51"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
       <c r="C14" s="7" t="s">
         <v>36</v>
       </c>
@@ -7970,10 +7970,10 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="54" t="s">
         <v>137</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -7993,8 +7993,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="57"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
@@ -8035,10 +8035,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -8058,8 +8058,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="57"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="51"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="7" t="s">
         <v>42</v>
       </c>
@@ -8077,8 +8077,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="57"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="7" t="s">
         <v>43</v>
       </c>
@@ -8096,8 +8096,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="56"/>
+      <c r="B22" s="57"/>
       <c r="C22" s="7" t="s">
         <v>44</v>
       </c>
@@ -8115,10 +8115,10 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="52" t="s">
         <v>331</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -8138,8 +8138,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="51"/>
+      <c r="A24" s="51"/>
+      <c r="B24" s="53"/>
       <c r="C24" s="7" t="s">
         <v>46</v>
       </c>
@@ -8203,10 +8203,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="54" t="s">
         <v>147</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -8226,8 +8226,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="7" t="s">
         <v>50</v>
       </c>
@@ -8245,10 +8245,10 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="55" t="s">
+      <c r="A29" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="52" t="s">
         <v>196</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -8268,8 +8268,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="51"/>
+      <c r="A30" s="63"/>
+      <c r="B30" s="53"/>
       <c r="C30" s="7" t="s">
         <v>52</v>
       </c>
@@ -8287,8 +8287,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="54"/>
+      <c r="A31" s="63"/>
+      <c r="B31" s="62"/>
       <c r="C31" s="7" t="s">
         <v>53</v>
       </c>
@@ -8314,24 +8314,24 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="18">
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="A19:A22"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A23:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -8345,7 +8345,7 @@
   </sheetPr>
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
@@ -8546,10 +8546,10 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="52">
+      <c r="A11" s="54">
         <v>2</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="54" t="s">
         <v>132</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -8569,8 +8569,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
       <c r="C12" s="6" t="s">
         <v>212</v>
       </c>
@@ -8588,8 +8588,8 @@
       <c r="M12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="6" t="s">
         <v>213</v>
       </c>
@@ -8607,10 +8607,10 @@
       <c r="M13" s="1"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="50">
+      <c r="A14" s="52">
         <v>3</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="52" t="s">
         <v>134</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -8630,8 +8630,8 @@
       <c r="M14" s="1"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="53"/>
       <c r="C15" s="6" t="s">
         <v>215</v>
       </c>
@@ -8672,10 +8672,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>5</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="54" t="s">
         <v>137</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -8695,8 +8695,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="11" t="s">
         <v>219</v>
       </c>
@@ -8737,10 +8737,10 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="52">
+      <c r="A20" s="54">
         <v>7</v>
       </c>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="54" t="s">
         <v>141</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -8760,8 +8760,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
       <c r="C21" s="8" t="s">
         <v>222</v>
       </c>
@@ -8779,8 +8779,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
       <c r="C22" s="10" t="s">
         <v>223</v>
       </c>
@@ -8798,8 +8798,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
       <c r="C23" s="6" t="s">
         <v>224</v>
       </c>
@@ -8817,10 +8817,10 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50">
+      <c r="A24" s="52">
         <v>8</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="52" t="s">
         <v>331</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -8840,8 +8840,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="53"/>
       <c r="C25" s="8" t="s">
         <v>229</v>
       </c>
@@ -8905,10 +8905,10 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="52">
+      <c r="A28" s="54">
         <v>11</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="54" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -8928,8 +8928,8 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="8" t="s">
         <v>233</v>
       </c>
@@ -8947,10 +8947,10 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="50">
+      <c r="A30" s="52">
         <v>12</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="52" t="s">
         <v>196</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -8970,8 +8970,8 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
       <c r="C31" s="8" t="s">
         <v>235</v>
       </c>
@@ -8989,8 +8989,8 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
       <c r="C32" s="8" t="s">
         <v>236</v>
       </c>
@@ -9063,11 +9063,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="19">
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="A30:A32"/>
     <mergeCell ref="B11:B13"/>
@@ -9082,6 +9077,11 @@
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="B30:B32"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="94" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -9095,8 +9095,8 @@
   </sheetPr>
   <dimension ref="A2:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9188,7 +9188,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="42">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -9201,7 +9201,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
@@ -9214,7 +9214,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="42">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -9300,8 +9300,8 @@
   </sheetPr>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24:F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9370,7 +9370,7 @@
       <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="63" t="s">
         <v>202</v>
       </c>
       <c r="B6" s="80" t="s">
@@ -9393,7 +9393,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="81"/>
       <c r="C7" s="15" t="s">
         <v>55</v>
@@ -9412,7 +9412,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
+      <c r="A8" s="63"/>
       <c r="B8" s="82"/>
       <c r="C8" s="15" t="s">
         <v>56</v>
@@ -9431,7 +9431,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="63" t="s">
         <v>203</v>
       </c>
       <c r="B9" s="60" t="s">
@@ -9454,7 +9454,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="61"/>
       <c r="C10" s="15" t="s">
         <v>58</v>
@@ -9473,7 +9473,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="61"/>
       <c r="C11" s="15" t="s">
         <v>59</v>
@@ -9492,10 +9492,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="63" t="s">
         <v>204</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="54" t="s">
         <v>169</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -9515,8 +9515,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="53"/>
+      <c r="A13" s="63"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="15" t="s">
         <v>61</v>
       </c>
@@ -9534,8 +9534,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="15" t="s">
         <v>62</v>
       </c>
@@ -9553,7 +9553,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="55" t="s">
+      <c r="A15" s="63" t="s">
         <v>205</v>
       </c>
       <c r="B15" s="60" t="s">
@@ -9576,7 +9576,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
+      <c r="A16" s="63"/>
       <c r="B16" s="61"/>
       <c r="C16" s="15" t="s">
         <v>64</v>
@@ -9595,7 +9595,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="63"/>
       <c r="B17" s="61"/>
       <c r="C17" s="15" t="s">
         <v>65</v>
@@ -9614,10 +9614,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="55" t="s">
+      <c r="A18" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="54" t="s">
         <v>153</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -9637,8 +9637,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="15" t="s">
         <v>67</v>
       </c>
@@ -9656,8 +9656,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="55"/>
       <c r="C20" s="15" t="s">
         <v>68</v>
       </c>
@@ -9675,7 +9675,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="63" t="s">
         <v>207</v>
       </c>
       <c r="B21" s="60" t="s">
@@ -9698,7 +9698,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
+      <c r="A22" s="63"/>
       <c r="B22" s="61"/>
       <c r="C22" s="15" t="s">
         <v>70</v>
@@ -9717,7 +9717,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
+      <c r="A23" s="63"/>
       <c r="B23" s="61"/>
       <c r="C23" s="15" t="s">
         <v>71</v>
@@ -9736,7 +9736,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="55" t="s">
+      <c r="A24" s="63" t="s">
         <v>208</v>
       </c>
       <c r="B24" s="60" t="s">
@@ -9759,7 +9759,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="61"/>
       <c r="C25" s="15" t="s">
         <v>73</v>
@@ -9778,7 +9778,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="63"/>
       <c r="B26" s="61"/>
       <c r="C26" s="15" t="s">
         <v>74</v>
@@ -9797,10 +9797,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="63" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="54" t="s">
         <v>156</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -9820,8 +9820,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="53"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="15" t="s">
         <v>76</v>
       </c>
@@ -9839,8 +9839,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="15" t="s">
         <v>77</v>
       </c>
@@ -9858,7 +9858,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="63" t="s">
         <v>210</v>
       </c>
       <c r="B30" s="79" t="s">
@@ -9881,7 +9881,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="63"/>
       <c r="B31" s="79"/>
       <c r="C31" s="34" t="s">
         <v>76</v>
@@ -9900,7 +9900,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="79"/>
       <c r="C32" s="34" t="s">
         <v>77</v>
@@ -9927,18 +9927,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="20">
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="A15:A17"/>
@@ -9947,6 +9935,18 @@
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="A18:A20"/>
     <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -10079,10 +10079,10 @@
       <c r="M6" s="75"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="84">
+      <c r="A7" s="83">
         <v>1</v>
       </c>
-      <c r="B7" s="84" t="s">
+      <c r="B7" s="83" t="s">
         <v>149</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -10102,8 +10102,8 @@
       <c r="M7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="84"/>
-      <c r="B8" s="84"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="8" t="s">
         <v>238</v>
       </c>
@@ -10121,8 +10121,8 @@
       <c r="M8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="84"/>
-      <c r="B9" s="84"/>
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="8" t="s">
         <v>239</v>
       </c>
@@ -10140,10 +10140,10 @@
       <c r="M9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="83">
+      <c r="A10" s="84">
         <v>2</v>
       </c>
-      <c r="B10" s="83" t="s">
+      <c r="B10" s="84" t="s">
         <v>151</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -10163,8 +10163,8 @@
       <c r="M10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="84"/>
       <c r="C11" s="8" t="s">
         <v>241</v>
       </c>
@@ -10182,8 +10182,8 @@
       <c r="M11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="84"/>
       <c r="C12" s="8" t="s">
         <v>242</v>
       </c>
@@ -10262,10 +10262,10 @@
       <c r="M15" s="1"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="83">
+      <c r="A16" s="84">
         <v>4</v>
       </c>
-      <c r="B16" s="83" t="s">
+      <c r="B16" s="84" t="s">
         <v>152</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -10285,8 +10285,8 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="84"/>
+      <c r="B17" s="84"/>
       <c r="C17" s="8" t="s">
         <v>247</v>
       </c>
@@ -10304,8 +10304,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
       <c r="C18" s="8" t="s">
         <v>248</v>
       </c>
@@ -10384,10 +10384,10 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="83">
+      <c r="A22" s="84">
         <v>6</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>154</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -10407,8 +10407,8 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="8" t="s">
         <v>253</v>
       </c>
@@ -10426,8 +10426,8 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="8" t="s">
         <v>254</v>
       </c>
@@ -10445,10 +10445,10 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="83">
+      <c r="A25" s="84">
         <v>7</v>
       </c>
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -10468,8 +10468,8 @@
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="84"/>
       <c r="C26" s="8" t="s">
         <v>262</v>
       </c>
@@ -10487,8 +10487,8 @@
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="84"/>
       <c r="C27" s="8" t="s">
         <v>263</v>
       </c>
@@ -10683,18 +10683,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="21">
-    <mergeCell ref="A1:M3"/>
-    <mergeCell ref="F4:M4"/>
-    <mergeCell ref="A6:M6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A31:A33"/>
@@ -10704,6 +10692,18 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A1:M3"/>
+    <mergeCell ref="F4:M4"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10715,7 +10715,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10781,7 +10781,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="42">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E9" s="76"/>
       <c r="F9" s="76"/>
@@ -10794,7 +10794,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="42">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10" s="76"/>
       <c r="F10" s="76"/>
@@ -10807,7 +10807,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="42">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E11" s="76"/>
       <c r="F11" s="76"/>
@@ -10820,7 +10820,7 @@
         <v>7</v>
       </c>
       <c r="C12" s="42">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="E12" s="76"/>
       <c r="F12" s="76"/>
@@ -10833,7 +10833,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="42">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="E13" s="76"/>
       <c r="F13" s="76"/>
@@ -10911,7 +10911,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F24"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10980,7 +10980,7 @@
       <c r="G5" s="59"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="63" t="s">
         <v>267</v>
       </c>
       <c r="B6" s="80" t="s">
@@ -11003,7 +11003,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
+      <c r="A7" s="63"/>
       <c r="B7" s="81"/>
       <c r="C7" s="34" t="s">
         <v>288</v>
@@ -11022,7 +11022,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="63" t="s">
         <v>268</v>
       </c>
       <c r="B8" s="60" t="s">
@@ -11045,7 +11045,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="63"/>
       <c r="B9" s="61"/>
       <c r="C9" s="34" t="s">
         <v>289</v>
@@ -11064,7 +11064,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
+      <c r="A10" s="63"/>
       <c r="B10" s="61"/>
       <c r="C10" s="34" t="s">
         <v>291</v>
@@ -11083,7 +11083,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="63"/>
       <c r="B11" s="61"/>
       <c r="C11" s="34" t="s">
         <v>292</v>
@@ -11125,7 +11125,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
+      <c r="A13" s="63" t="s">
         <v>270</v>
       </c>
       <c r="B13" s="60" t="s">
@@ -11148,7 +11148,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="61"/>
       <c r="C14" s="34" t="s">
         <v>295</v>
@@ -11167,7 +11167,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
+      <c r="A15" s="63"/>
       <c r="B15" s="61"/>
       <c r="C15" s="34" t="s">
         <v>296</v>
@@ -11186,10 +11186,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="63" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="54" t="s">
         <v>339</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -11209,8 +11209,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="55"/>
       <c r="C17" s="34" t="s">
         <v>298</v>
       </c>
@@ -11228,8 +11228,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="63"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="34" t="s">
         <v>299</v>
       </c>
@@ -11247,10 +11247,10 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="63" t="s">
         <v>271</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="84" t="s">
         <v>108</v>
       </c>
       <c r="C19" s="34" t="s">
@@ -11270,8 +11270,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="84"/>
       <c r="C20" s="34" t="s">
         <v>301</v>
       </c>
@@ -11289,8 +11289,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="34" t="s">
         <v>302</v>
       </c>
@@ -11308,10 +11308,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="63" t="s">
         <v>272</v>
       </c>
-      <c r="B22" s="83" t="s">
+      <c r="B22" s="84" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="34" t="s">
@@ -11331,8 +11331,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="84"/>
       <c r="C23" s="34" t="s">
         <v>304</v>
       </c>
@@ -11350,8 +11350,8 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="34" t="s">
         <v>305</v>
       </c>
@@ -11377,12 +11377,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="14">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="A13:A15"/>
@@ -11391,6 +11385,12 @@
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="B19:B21"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -11729,10 +11729,10 @@
       <c r="M16" s="1"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="52">
+      <c r="A17" s="54">
         <v>5</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="54" t="s">
         <v>107</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -11752,8 +11752,8 @@
       <c r="M17" s="1"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
       <c r="C18" s="10" t="s">
         <v>286</v>
       </c>
@@ -11771,8 +11771,8 @@
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="53"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="43" t="s">
         <v>285</v>
       </c>
@@ -11790,10 +11790,10 @@
       <c r="M19" s="1"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="83">
+      <c r="A20" s="84">
         <v>6</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -11813,8 +11813,8 @@
       <c r="M20" s="1"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
       <c r="C21" s="10" t="s">
         <v>286</v>
       </c>
@@ -11832,8 +11832,8 @@
       <c r="M21" s="1"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
       <c r="C22" s="44" t="s">
         <v>285</v>
       </c>
@@ -11851,10 +11851,10 @@
       <c r="M22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="83">
+      <c r="A23" s="84">
         <v>7</v>
       </c>
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="84" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -11874,8 +11874,8 @@
       <c r="M23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="83"/>
-      <c r="B24" s="83"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="10" t="s">
         <v>286</v>
       </c>
@@ -11893,8 +11893,8 @@
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="83"/>
-      <c r="B25" s="83"/>
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
       <c r="C25" s="44" t="s">
         <v>285</v>
       </c>
@@ -11967,21 +11967,21 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="15">
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A20:A22"/>
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="B17:B19"/>
     <mergeCell ref="A1:M3"/>
     <mergeCell ref="F4:M4"/>
     <mergeCell ref="A6:M6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B9:B12"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A23:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
